--- a/resultados_ml_experimentos.xlsx
+++ b/resultados_ml_experimentos.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\suporte\Google-Drive\Cursos-e-concursos\UFMS\mestrado\inteligencia artificial\trabalho-prático\3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4AB65C-84E8-4717-9398-9B26E5DBD83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -106,8 +112,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,13 +176,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +228,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -248,6 +262,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -282,9 +297,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -457,14 +473,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -522,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -545,7 +573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -568,7 +596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -579,19 +607,19 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>0.9333333333333333</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="E5">
-        <v>0.9391534391534391</v>
+        <v>0.93915343915343907</v>
       </c>
       <c r="F5">
-        <v>0.9333333333333333</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="G5">
         <v>0.9305081409912328</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -614,7 +642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -625,19 +653,19 @@
         <v>27</v>
       </c>
       <c r="D7">
-        <v>0.9777777777777777</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="E7">
-        <v>0.9793650793650793</v>
+        <v>0.97936507936507933</v>
       </c>
       <c r="F7">
-        <v>0.9777777777777777</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="G7">
-        <v>0.9777448559670782</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>0.97774485596707816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -660,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -683,7 +711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -694,19 +722,19 @@
         <v>27</v>
       </c>
       <c r="D10">
-        <v>0.9629629629629629</v>
+        <v>0.96296296296296291</v>
       </c>
       <c r="E10">
-        <v>0.9638047138047138</v>
+        <v>0.96380471380471378</v>
       </c>
       <c r="F10">
-        <v>0.9629629629629629</v>
+        <v>0.96296296296296291</v>
       </c>
       <c r="G10">
-        <v>0.9628353590455226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>0.96283535904552264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -717,19 +745,19 @@
         <v>27</v>
       </c>
       <c r="D11">
-        <v>0.9814814814814815</v>
+        <v>0.98148148148148151</v>
       </c>
       <c r="E11">
-        <v>0.982716049382716</v>
+        <v>0.98271604938271595</v>
       </c>
       <c r="F11">
-        <v>0.9814814814814815</v>
+        <v>0.98148148148148151</v>
       </c>
       <c r="G11">
-        <v>0.9815749306918357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>0.98157493069183566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -752,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -763,19 +791,19 @@
         <v>27</v>
       </c>
       <c r="D13">
-        <v>0.9814814814814815</v>
+        <v>0.98148148148148151</v>
       </c>
       <c r="E13">
         <v>0.9824074074074074</v>
       </c>
       <c r="F13">
-        <v>0.9814814814814815</v>
+        <v>0.98148148148148151</v>
       </c>
       <c r="G13">
-        <v>0.9814930627938757</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>0.98149306279387571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -786,19 +814,19 @@
         <v>27</v>
       </c>
       <c r="D14">
-        <v>0.9814814814814815</v>
+        <v>0.98148148148148151</v>
       </c>
       <c r="E14">
-        <v>0.9823232323232324</v>
+        <v>0.98232323232323238</v>
       </c>
       <c r="F14">
-        <v>0.9814814814814815</v>
+        <v>0.98148148148148151</v>
       </c>
       <c r="G14">
-        <v>0.9813538775640411</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>0.98135387756404113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -821,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -832,19 +860,19 @@
         <v>27</v>
       </c>
       <c r="D16">
-        <v>0.9629629629629629</v>
+        <v>0.96296296296296291</v>
       </c>
       <c r="E16">
-        <v>0.9651234567901233</v>
+        <v>0.96512345679012335</v>
       </c>
       <c r="F16">
-        <v>0.9629629629629629</v>
+        <v>0.96296296296296291</v>
       </c>
       <c r="G16">
-        <v>0.9625937387431641</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.96259373874316412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -867,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -878,19 +906,19 @@
         <v>27</v>
       </c>
       <c r="D18">
-        <v>0.9415204678362573</v>
+        <v>0.94152046783625731</v>
       </c>
       <c r="E18">
-        <v>0.9432896247507402</v>
+        <v>0.94328962475074019</v>
       </c>
       <c r="F18">
-        <v>0.9415204678362573</v>
+        <v>0.94152046783625731</v>
       </c>
       <c r="G18">
-        <v>0.9418684592468108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.94186845924681084</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -901,19 +929,19 @@
         <v>27</v>
       </c>
       <c r="D19">
-        <v>0.9824561403508771</v>
+        <v>0.98245614035087714</v>
       </c>
       <c r="E19">
-        <v>0.9825842351205116</v>
+        <v>0.98258423512051163</v>
       </c>
       <c r="F19">
-        <v>0.9824561403508771</v>
+        <v>0.98245614035087714</v>
       </c>
       <c r="G19">
-        <v>0.9824844109908538</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.98248441099085382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -924,19 +952,19 @@
         <v>27</v>
       </c>
       <c r="D20">
-        <v>0.9766081871345029</v>
+        <v>0.97660818713450293</v>
       </c>
       <c r="E20">
-        <v>0.9770376594606983</v>
+        <v>0.97703765946069832</v>
       </c>
       <c r="F20">
-        <v>0.9766081871345029</v>
+        <v>0.97660818713450293</v>
       </c>
       <c r="G20">
-        <v>0.9766816281357601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.97668162813576009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -947,19 +975,19 @@
         <v>27</v>
       </c>
       <c r="D21">
-        <v>0.9649122807017544</v>
+        <v>0.96491228070175439</v>
       </c>
       <c r="E21">
-        <v>0.9654113513100604</v>
+        <v>0.96541135131006039</v>
       </c>
       <c r="F21">
-        <v>0.9649122807017544</v>
+        <v>0.96491228070175439</v>
       </c>
       <c r="G21">
-        <v>0.9650224422036399</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.96502244220363986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -970,19 +998,19 @@
         <v>27</v>
       </c>
       <c r="D22">
-        <v>0.9766081871345029</v>
+        <v>0.97660818713450293</v>
       </c>
       <c r="E22">
-        <v>0.9766081871345029</v>
+        <v>0.97660818713450293</v>
       </c>
       <c r="F22">
-        <v>0.9766081871345029</v>
+        <v>0.97660818713450293</v>
       </c>
       <c r="G22">
-        <v>0.9766081871345029</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.97660818713450293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -993,19 +1021,19 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <v>0.935672514619883</v>
+        <v>0.93567251461988299</v>
       </c>
       <c r="E23">
-        <v>0.9355228111711654</v>
+        <v>0.93552281117116542</v>
       </c>
       <c r="F23">
-        <v>0.935672514619883</v>
+        <v>0.93567251461988299</v>
       </c>
       <c r="G23">
-        <v>0.9355634246907591</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.93556342469075915</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1016,19 +1044,19 @@
         <v>27</v>
       </c>
       <c r="D24">
-        <v>0.9590643274853801</v>
+        <v>0.95906432748538006</v>
       </c>
       <c r="E24">
-        <v>0.9589959657949254</v>
+        <v>0.95899596579492541</v>
       </c>
       <c r="F24">
-        <v>0.9590643274853801</v>
+        <v>0.95906432748538006</v>
       </c>
       <c r="G24">
         <v>0.9589949066213922</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1042,16 +1070,16 @@
         <v>0.9707602339181286</v>
       </c>
       <c r="E25">
-        <v>0.9711000474158369</v>
+        <v>0.97110004741583689</v>
       </c>
       <c r="F25">
         <v>0.9707602339181286</v>
       </c>
       <c r="G25">
-        <v>0.970603923775359</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.97060392377535898</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1065,16 +1093,16 @@
         <v>0.8574074074074074</v>
       </c>
       <c r="E26">
-        <v>0.8591235927342885</v>
+        <v>0.85912359273428851</v>
       </c>
       <c r="F26">
         <v>0.8574074074074074</v>
       </c>
       <c r="G26">
-        <v>0.8576310180129412</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.85763101801294117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1085,19 +1113,19 @@
         <v>27</v>
       </c>
       <c r="D27">
-        <v>0.9703703703703703</v>
+        <v>0.97037037037037033</v>
       </c>
       <c r="E27">
-        <v>0.971507157867087</v>
+        <v>0.97150715786708697</v>
       </c>
       <c r="F27">
-        <v>0.9703703703703703</v>
+        <v>0.97037037037037033</v>
       </c>
       <c r="G27">
-        <v>0.9705077874984867</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.97050778749848665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1108,19 +1136,19 @@
         <v>27</v>
       </c>
       <c r="D28">
-        <v>0.9814814814814815</v>
+        <v>0.98148148148148151</v>
       </c>
       <c r="E28">
-        <v>0.9819949719018041</v>
+        <v>0.98199497190180407</v>
       </c>
       <c r="F28">
-        <v>0.9814814814814815</v>
+        <v>0.98148148148148151</v>
       </c>
       <c r="G28">
-        <v>0.9815164820874356</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.98151648208743558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1131,19 +1159,19 @@
         <v>27</v>
       </c>
       <c r="D29">
-        <v>0.9259259259259259</v>
+        <v>0.92592592592592593</v>
       </c>
       <c r="E29">
-        <v>0.9304106962444428</v>
+        <v>0.93041069624444284</v>
       </c>
       <c r="F29">
-        <v>0.9259259259259259</v>
+        <v>0.92592592592592593</v>
       </c>
       <c r="G29">
-        <v>0.9267620776480963</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.92676207764809626</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1154,19 +1182,19 @@
         <v>27</v>
       </c>
       <c r="D30">
-        <v>0.9796296296296296</v>
+        <v>0.97962962962962963</v>
       </c>
       <c r="E30">
-        <v>0.9799661157842967</v>
+        <v>0.97996611578429671</v>
       </c>
       <c r="F30">
-        <v>0.9796296296296296</v>
+        <v>0.97962962962962963</v>
       </c>
       <c r="G30">
-        <v>0.9795345379545063</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.97953453795450629</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1177,19 +1205,19 @@
         <v>27</v>
       </c>
       <c r="D31">
-        <v>0.7833333333333333</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="E31">
-        <v>0.831032824618273</v>
+        <v>0.83103282461827299</v>
       </c>
       <c r="F31">
-        <v>0.7833333333333333</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.7801214586720895</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.78012145867208949</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1200,19 +1228,19 @@
         <v>27</v>
       </c>
       <c r="D32">
-        <v>0.975925925925926</v>
+        <v>0.97592592592592597</v>
       </c>
       <c r="E32">
         <v>0.9760563275373626</v>
       </c>
       <c r="F32">
-        <v>0.975925925925926</v>
+        <v>0.97592592592592597</v>
       </c>
       <c r="G32">
-        <v>0.9757501768252317</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>0.97575017682523169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1223,19 +1251,19 @@
         <v>27</v>
       </c>
       <c r="D33">
-        <v>0.975925925925926</v>
+        <v>0.97592592592592597</v>
       </c>
       <c r="E33">
-        <v>0.9760205897583946</v>
+        <v>0.97602058975839456</v>
       </c>
       <c r="F33">
-        <v>0.975925925925926</v>
+        <v>0.97592592592592597</v>
       </c>
       <c r="G33">
-        <v>0.9758907341870857</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>0.97589073418708572</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1246,19 +1274,19 @@
         <v>28</v>
       </c>
       <c r="H34">
-        <v>2821.750981001311</v>
+        <v>2821.7509810013112</v>
       </c>
       <c r="I34">
-        <v>53.12015607094271</v>
+        <v>53.120156070942713</v>
       </c>
       <c r="J34">
-        <v>41.91937845679274</v>
+        <v>41.919378456792742</v>
       </c>
       <c r="K34">
         <v>0.4772897164322617</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1269,19 +1297,19 @@
         <v>27</v>
       </c>
       <c r="D35">
-        <v>0.7723880597014925</v>
+        <v>0.77238805970149249</v>
       </c>
       <c r="E35">
         <v>0.7721025196228295</v>
       </c>
       <c r="F35">
-        <v>0.7723880597014925</v>
+        <v>0.77238805970149249</v>
       </c>
       <c r="G35">
-        <v>0.7722343893546704</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>0.77223438935467037</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1292,19 +1320,19 @@
         <v>27</v>
       </c>
       <c r="D36">
-        <v>0.8097014925373134</v>
+        <v>0.80970149253731338</v>
       </c>
       <c r="E36">
-        <v>0.8088565852523349</v>
+        <v>0.80885658525233495</v>
       </c>
       <c r="F36">
-        <v>0.8097014925373134</v>
+        <v>0.80970149253731338</v>
       </c>
       <c r="G36">
-        <v>0.8083323191308099</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>0.80833231913080994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1315,19 +1343,19 @@
         <v>27</v>
       </c>
       <c r="D37">
-        <v>0.8134328358208955</v>
+        <v>0.81343283582089554</v>
       </c>
       <c r="E37">
-        <v>0.8198817868228769</v>
+        <v>0.81988178682287693</v>
       </c>
       <c r="F37">
-        <v>0.8134328358208955</v>
+        <v>0.81343283582089554</v>
       </c>
       <c r="G37">
-        <v>0.8081919334898138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>0.80819193348981377</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1338,19 +1366,19 @@
         <v>27</v>
       </c>
       <c r="D38">
-        <v>0.7276119402985075</v>
+        <v>0.72761194029850751</v>
       </c>
       <c r="E38">
-        <v>0.7343273551596854</v>
+        <v>0.73432735515968539</v>
       </c>
       <c r="F38">
-        <v>0.7276119402985075</v>
+        <v>0.72761194029850751</v>
       </c>
       <c r="G38">
         <v>0.7292639439404377</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -1361,19 +1389,19 @@
         <v>27</v>
       </c>
       <c r="D39">
-        <v>0.8171641791044776</v>
+        <v>0.81716417910447758</v>
       </c>
       <c r="E39">
-        <v>0.8247775099656995</v>
+        <v>0.82477750996569954</v>
       </c>
       <c r="F39">
-        <v>0.8171641791044776</v>
+        <v>0.81716417910447758</v>
       </c>
       <c r="G39">
-        <v>0.8117446828568639</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>0.81174468285686385</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -1384,19 +1412,19 @@
         <v>27</v>
       </c>
       <c r="D40">
-        <v>0.7947761194029851</v>
+        <v>0.79477611940298509</v>
       </c>
       <c r="E40">
-        <v>0.7945214949418615</v>
+        <v>0.79452149494186153</v>
       </c>
       <c r="F40">
-        <v>0.7947761194029851</v>
+        <v>0.79477611940298509</v>
       </c>
       <c r="G40">
-        <v>0.7946375641722436</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>0.79463756417224363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -1407,19 +1435,19 @@
         <v>27</v>
       </c>
       <c r="D41">
-        <v>0.7910447761194029</v>
+        <v>0.79104477611940294</v>
       </c>
       <c r="E41">
-        <v>0.7915234885480432</v>
+        <v>0.79152348854804322</v>
       </c>
       <c r="F41">
-        <v>0.7910447761194029</v>
+        <v>0.79104477611940294</v>
       </c>
       <c r="G41">
-        <v>0.787490612141278</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>0.78749061214127802</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -1430,19 +1458,19 @@
         <v>27</v>
       </c>
       <c r="D42">
-        <v>0.7835820895522388</v>
+        <v>0.78358208955223885</v>
       </c>
       <c r="E42">
-        <v>0.7826897035112358</v>
+        <v>0.78268970351123579</v>
       </c>
       <c r="F42">
-        <v>0.7835820895522388</v>
+        <v>0.78358208955223885</v>
       </c>
       <c r="G42">
-        <v>0.7829577230689205</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>0.78295772306892053</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -1453,19 +1481,19 @@
         <v>27</v>
       </c>
       <c r="D43">
-        <v>0.8909120336651291</v>
+        <v>0.89091203366512906</v>
       </c>
       <c r="E43">
-        <v>0.8927064328679364</v>
+        <v>0.89270643286793638</v>
       </c>
       <c r="F43">
-        <v>0.8909120336651291</v>
+        <v>0.89091203366512906</v>
       </c>
       <c r="G43">
-        <v>0.8917846497473912</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>0.89178464974739124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1488,7 +1516,7 @@
         <v>0.9032350318678487</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1499,19 +1527,19 @@
         <v>27</v>
       </c>
       <c r="D45">
-        <v>0.8978716516953953</v>
+        <v>0.89787165169539529</v>
       </c>
       <c r="E45">
-        <v>0.8996225010462522</v>
+        <v>0.89962250104625219</v>
       </c>
       <c r="F45">
-        <v>0.8978716516953953</v>
+        <v>0.89787165169539529</v>
       </c>
       <c r="G45">
-        <v>0.8987193177457373</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>0.89871931774573732</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1522,19 +1550,19 @@
         <v>27</v>
       </c>
       <c r="D46">
-        <v>0.8603220846483774</v>
+        <v>0.86032208464837745</v>
       </c>
       <c r="E46">
-        <v>0.8748815259594706</v>
+        <v>0.87488152595947055</v>
       </c>
       <c r="F46">
-        <v>0.8603220846483774</v>
+        <v>0.86032208464837745</v>
       </c>
       <c r="G46">
-        <v>0.8668047324813907</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>0.86680473248139067</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1545,19 +1573,19 @@
         <v>27</v>
       </c>
       <c r="D47">
-        <v>0.9092012624423403</v>
+        <v>0.90920126244234034</v>
       </c>
       <c r="E47">
-        <v>0.8965816657844273</v>
+        <v>0.89658166578442733</v>
       </c>
       <c r="F47">
-        <v>0.9092012624423403</v>
+        <v>0.90920126244234034</v>
       </c>
       <c r="G47">
-        <v>0.8973554843241491</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>0.89735548432414913</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -1568,19 +1596,19 @@
         <v>27</v>
       </c>
       <c r="D48">
-        <v>0.7481589382536215</v>
+        <v>0.74815893825362145</v>
       </c>
       <c r="E48">
-        <v>0.8902499704342554</v>
+        <v>0.89024997043425536</v>
       </c>
       <c r="F48">
-        <v>0.7481589382536215</v>
+        <v>0.74815893825362145</v>
       </c>
       <c r="G48">
-        <v>0.791920880751974</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.79192088075197398</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1591,19 +1619,19 @@
         <v>27</v>
       </c>
       <c r="D49">
-        <v>0.8981144290685441</v>
+        <v>0.89811442906854411</v>
       </c>
       <c r="E49">
         <v>0.8819655021219861</v>
       </c>
       <c r="F49">
-        <v>0.8981144290685441</v>
+        <v>0.89811442906854411</v>
       </c>
       <c r="G49">
-        <v>0.8857392083214611</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.88573920832146114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1614,16 +1642,16 @@
         <v>27</v>
       </c>
       <c r="D50">
-        <v>0.9124382940843246</v>
+        <v>0.91243829408432464</v>
       </c>
       <c r="E50">
-        <v>0.9034199401716647</v>
+        <v>0.90341994017166471</v>
       </c>
       <c r="F50">
-        <v>0.9124382940843246</v>
+        <v>0.91243829408432464</v>
       </c>
       <c r="G50">
-        <v>0.9058971488866941</v>
+        <v>0.90589714888669415</v>
       </c>
     </row>
   </sheetData>
